--- a/paso2_multiclass_500_LR_KNN_CART_RFC.xlsx
+++ b/paso2_multiclass_500_LR_KNN_CART_RFC.xlsx
@@ -433,7 +433,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>0.8134556574923547</v>
+        <v>0.7886435331230284</v>
       </c>
     </row>
     <row r="2">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6605504587155964</v>
+        <v>0.6593059936908517</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +463,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8042813455657493</v>
+        <v>0.750788643533123</v>
       </c>
     </row>
     <row r="4">
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7951070336391437</v>
+        <v>0.7917981072555205</v>
       </c>
     </row>
   </sheetData>
